--- a/PrioriteringForslag.xlsx
+++ b/PrioriteringForslag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\QGIS-DMP-Plugin-installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA03999C-B998-44BF-B2D6-75F54742CDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE85C12-531B-4B11-907D-B07D7345C84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E5654024-4EEE-408C-B180-845EED9F8812}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5654024-4EEE-408C-B180-845EED9F8812}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Prioriteringsliste  for videudvikling af DMP Manager plugin</t>
   </si>
@@ -510,25 +510,25 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.9453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -545,8 +545,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -554,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -573,15 +573,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -592,7 +595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -603,7 +606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -611,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -622,7 +625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -633,7 +636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -644,7 +647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>

--- a/PrioriteringForslag.xlsx
+++ b/PrioriteringForslag.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">Prioriteringsliste  for videudvikling af DMP Manager plugin</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Funktion til opsplitning af multipolygoner/multilinjestykker til sæt at simple geometrier #26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er finansieret, færdiggøres primo januar 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Udskiftning af c# .NET authentication modul til en python funktion. #27 </t>
@@ -212,8 +215,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,151 +318,154 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="82.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>20</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>18</v>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>21</v>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
